--- a/biology/Microbiologie/Trueperella/Trueperella.xlsx
+++ b/biology/Microbiologie/Trueperella/Trueperella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trueperella est un genre de coccobacilles Gram positif de la famille des Actinomycetaceae. Son nom fait référence au microbiologiste H.G. Trüper.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est proposé en 2011 par A.F. Yassin et al. pour recevoir une partie du genre Arcanobacterium après révision de celui-ci à l'aide de techniques de phylogénétique moléculaire[1]. Il est validé la même année par une publication dans l'IJSEM[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est proposé en 2011 par A.F. Yassin et al. pour recevoir une partie du genre Arcanobacterium après révision de celui-ci à l'aide de techniques de phylogénétique moléculaire. Il est validé la même année par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (6 décembre)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (6 décembre) :
 Trueperella abortisuis (Azuma et al. 2009) Yassin et al. 2011
 Trueperella bernardiae (Funke et al. 1995) Yassin et al. 2011
 Trueperella bialowiezensis corrig. (Lehnen et al. 2006) Yassin et al. 2011
